--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3034781.001980326</v>
+        <v>3032574.908573887</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>414.0301000117425</v>
@@ -677,7 +677,7 @@
         <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208643</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866673</v>
+        <v>69.9268023686669</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0198424776874</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930304</v>
       </c>
       <c r="U2" t="n">
         <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
-        <v>153.4934253071299</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>385.7559826412906</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>31.30216440517187</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154846</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015499</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>159.0353604252219</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>194.2853119443091</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1516959462661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.2831165792399</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255588</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.6253882365109</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>9.936446604248426</v>
+        <v>139.0419139044155</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>32.56842626327234</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>32.56842626327222</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>142.567753130208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>42.93165166918606</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>231.4408706859778</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>186.8185428348312</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>73.41805918135782</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>42.01201317445309</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>110.6977437732682</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247653</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.12819374426154</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>136.0325688578949</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292638</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>13.21455103355472</v>
       </c>
       <c r="C19" t="n">
-        <v>126.942030906516</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.272891771007</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2138,7 +2138,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701368</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>31.00319170731816</v>
       </c>
       <c r="U22" t="n">
-        <v>176.9507823032566</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,13 +2530,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>128.7073758808343</v>
+        <v>214.8467271449446</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>32.8332365913646</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>210.3487998386245</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>215.129044574873</v>
+        <v>13.89072837997024</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>18.41803262400947</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>214.5822625185784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C35" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E35" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880162</v>
+        <v>6.081513486880134</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213001</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V35" t="n">
         <v>292.2568421840891</v>
@@ -3329,10 +3329,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958915</v>
+        <v>42.44639787602721</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125821</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G37" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400155</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S37" t="n">
-        <v>125.4984296551311</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V37" t="n">
         <v>216.6422270377822</v>
@@ -3487,7 +3487,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y37" t="n">
         <v>183.089237066049</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E38" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862165</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880191</v>
+        <v>6.081513486880141</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213007</v>
+        <v>73.69234550213001</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V38" t="n">
         <v>292.2568421840891</v>
@@ -3566,10 +3566,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247693</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379233</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400156</v>
+        <v>53.4367363840015</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T40" t="n">
-        <v>173.9010241596131</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V40" t="n">
         <v>216.6422270377822</v>
@@ -3724,10 +3724,10 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.089237066049</v>
+        <v>19.3291522987551</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E41" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880191</v>
+        <v>6.081513486880155</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213004</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U41" t="n">
         <v>215.4997556728562</v>
@@ -3803,10 +3803,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247693</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125821</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729824</v>
+        <v>28.64022595311725</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S43" t="n">
         <v>154.2736090453961</v>
       </c>
       <c r="T43" t="n">
-        <v>133.9211556220111</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V43" t="n">
         <v>216.6422270377822</v>
@@ -3961,7 +3961,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y43" t="n">
         <v>183.089237066049</v>
@@ -3986,7 +3986,7 @@
         <v>346.4349537862159</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556654</v>
       </c>
       <c r="G44" t="n">
         <v>375.4263093674076</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880155</v>
+        <v>6.081513486880141</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213004</v>
       </c>
       <c r="T44" t="n">
         <v>168.4225538535743</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V44" t="n">
         <v>292.2568421840891</v>
@@ -4147,13 +4147,13 @@
         <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>26.96127822086896</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379229</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>154.2736090453961</v>
       </c>
       <c r="T46" t="n">
-        <v>150.1578070872002</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
         <v>250.716421919567</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1207.194673074816</v>
+        <v>966.1972308736692</v>
       </c>
       <c r="C2" t="n">
-        <v>1207.194673074816</v>
+        <v>966.1972308736692</v>
       </c>
       <c r="D2" t="n">
-        <v>1207.194673074816</v>
+        <v>966.1972308736692</v>
       </c>
       <c r="E2" t="n">
-        <v>1207.194673074816</v>
+        <v>966.1972308736692</v>
       </c>
       <c r="F2" t="n">
-        <v>796.2087682852089</v>
+        <v>959.2517301244658</v>
       </c>
       <c r="G2" t="n">
-        <v>377.9965460511256</v>
+        <v>541.0395078903824</v>
       </c>
       <c r="H2" t="n">
-        <v>48.2577548550164</v>
+        <v>211.3007166942732</v>
       </c>
       <c r="I2" t="n">
-        <v>48.2577548550164</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="J2" t="n">
         <v>143.3613405244785</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293505</v>
+        <v>406.6417666293502</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024645</v>
+        <v>785.5410436024636</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782772</v>
+        <v>1223.74604078277</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400863</v>
+        <v>1654.409655400862</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671748</v>
+        <v>2015.885456671745</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110681</v>
+        <v>2286.722307110677</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.88774275082</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045096</v>
+        <v>2342.254609045092</v>
       </c>
       <c r="S2" t="n">
-        <v>2342.254609045096</v>
+        <v>2160.416384320155</v>
       </c>
       <c r="T2" t="n">
-        <v>2342.254609045096</v>
+        <v>1940.694284428205</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.472950552606</v>
+        <v>1686.912625935715</v>
       </c>
       <c r="V2" t="n">
-        <v>1933.42908660601</v>
+        <v>1355.849738592145</v>
       </c>
       <c r="W2" t="n">
-        <v>1580.660431335896</v>
+        <v>1355.849738592145</v>
       </c>
       <c r="X2" t="n">
-        <v>1207.194673074816</v>
+        <v>1355.849738592145</v>
       </c>
       <c r="Y2" t="n">
-        <v>1207.194673074816</v>
+        <v>966.1972308736692</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.186397718355</v>
+        <v>762.9492225297486</v>
       </c>
       <c r="C3" t="n">
-        <v>686.733368437228</v>
+        <v>588.4961932486216</v>
       </c>
       <c r="D3" t="n">
-        <v>537.7989587759768</v>
+        <v>439.5617835873703</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1806108919648</v>
+        <v>439.5617835873703</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6460529188497</v>
+        <v>293.0272256142553</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6030265867035</v>
+        <v>154.984199282109</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8765821596108</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="I3" t="n">
-        <v>48.2577548550164</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719586</v>
+        <v>111.2074192719584</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503526</v>
+        <v>345.4192653503521</v>
       </c>
       <c r="L3" t="n">
-        <v>721.7503922265962</v>
+        <v>721.7503922265954</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.890288538968</v>
+        <v>1212.890288538967</v>
       </c>
       <c r="N3" t="n">
-        <v>1732.736209861812</v>
+        <v>1732.736209861811</v>
       </c>
       <c r="O3" t="n">
-        <v>2141.877989476837</v>
+        <v>2141.877989476835</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642323</v>
+        <v>2257.44339364232</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.88774275082</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841572</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634277</v>
+        <v>2252.245964543521</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.366029972579</v>
+        <v>2052.831682881823</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.187661648786</v>
+        <v>1824.65331455803</v>
       </c>
       <c r="V3" t="n">
-        <v>1531.035553417043</v>
+        <v>1589.501206326288</v>
       </c>
       <c r="W3" t="n">
-        <v>1276.798196688842</v>
+        <v>1335.263849598086</v>
       </c>
       <c r="X3" t="n">
-        <v>1068.946696483309</v>
+        <v>1127.412349392553</v>
       </c>
       <c r="Y3" t="n">
-        <v>861.186397718355</v>
+        <v>931.1645595498167</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400.2113848025537</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="C4" t="n">
-        <v>400.2113848025537</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="D4" t="n">
-        <v>400.2113848025537</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="E4" t="n">
-        <v>400.2113848025537</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="F4" t="n">
-        <v>400.2113848025537</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="G4" t="n">
-        <v>400.2113848025537</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="H4" t="n">
-        <v>241.4722979881435</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="I4" t="n">
-        <v>101.7923822515375</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="J4" t="n">
-        <v>48.2577548550164</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461055</v>
+        <v>91.87143294461035</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384351</v>
+        <v>203.2083598384348</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534299</v>
+        <v>330.9866617534293</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692867</v>
+        <v>461.161297669286</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984542</v>
+        <v>565.3823477984533</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978499</v>
+        <v>631.0407786978487</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978499</v>
+        <v>631.0407786978487</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978499</v>
+        <v>477.8838208831912</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978499</v>
+        <v>477.8838208831912</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978499</v>
+        <v>477.8838208831912</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978499</v>
+        <v>188.7041325362442</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978499</v>
+        <v>188.7041325362442</v>
       </c>
       <c r="W4" t="n">
-        <v>621.0039639460838</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="X4" t="n">
-        <v>621.0039639460838</v>
+        <v>48.25775485501633</v>
       </c>
       <c r="Y4" t="n">
-        <v>400.2113848025537</v>
+        <v>48.25775485501633</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>880.7122078777245</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>511.7496909373128</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>511.7496909373128</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>511.7496909373128</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>100.7637861477052</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>86.84038208629612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>86.84038208629612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4610,7 +4610,7 @@
         <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.312047941846</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8327295799424</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8327295799424</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8327295799424</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8327295799424</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118.304160219349</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>847.844772492695</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>462.0565198944508</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>455.1110191452473</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>441.1876150838382</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2508.443492195161</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>2118.304160219349</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>128.1026375591097</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5027,16 +5027,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
@@ -5048,28 +5048,28 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2016.310259422545</v>
+        <v>2265.590483597802</v>
       </c>
       <c r="N11" t="n">
-        <v>2996.062531649191</v>
+        <v>2812.369300656584</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996753</v>
+        <v>3692.333950986039</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604875</v>
@@ -5115,25 +5115,25 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902953</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.5901955154777</v>
+        <v>508.0400813400983</v>
       </c>
       <c r="C13" t="n">
-        <v>452.5901955154778</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D13" t="n">
-        <v>452.5901955154778</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E13" t="n">
-        <v>452.5901955154778</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F13" t="n">
-        <v>305.7002480175674</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>137.9974113922864</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>137.9974113922864</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783398</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570252</v>
+        <v>619.8559841413793</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590079</v>
+        <v>508.0400813400983</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.5901955154777</v>
+        <v>508.0400813400983</v>
       </c>
     </row>
     <row r="14">
@@ -5273,49 +5273,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.15366264131</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N14" t="n">
-        <v>3297.750360443163</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.7228313225</v>
+        <v>3757.393206660292</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5370,31 +5370,31 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282341</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>582.3166934139182</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3805104860113</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814702</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608815</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>841.6225995718539</v>
+        <v>811.5418683145531</v>
       </c>
       <c r="X16" t="n">
-        <v>841.6225995718539</v>
+        <v>583.5523174165357</v>
       </c>
       <c r="Y16" t="n">
-        <v>620.8300204283238</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690178</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749765</v>
@@ -5498,67 +5498,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J17" t="n">
-        <v>425.1871727453687</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K17" t="n">
-        <v>1079.910504880668</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1530.944718129077</v>
+        <v>1898.85891762269</v>
       </c>
       <c r="M17" t="n">
-        <v>2064.476622801002</v>
+        <v>2432.390822294615</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.228895027648</v>
+        <v>2979.169639353397</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604877</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261306</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991192</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730112</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.8161967543</v>
       </c>
     </row>
     <row r="18">
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J18" t="n">
         <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>521.8150410860686</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C19" t="n">
-        <v>393.5907674431233</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="D19" t="n">
-        <v>243.4741280307875</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057173</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1220.870226851286</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W19" t="n">
-        <v>931.4530568143257</v>
+        <v>874.5404723472669</v>
       </c>
       <c r="X19" t="n">
-        <v>703.4635059163083</v>
+        <v>646.5509214492496</v>
       </c>
       <c r="Y19" t="n">
-        <v>703.4635059163083</v>
+        <v>425.7583423057195</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5744,58 +5744,58 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1088.893283004707</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>1622.425187676631</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>3515.905934867956</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4018.878405747293</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4413.65277210447</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4661.939133860153</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604877</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>411.3871648742117</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C22" t="n">
-        <v>242.4509819463048</v>
+        <v>413.3805104860113</v>
       </c>
       <c r="D22" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,34 +5926,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.657581931529</v>
+        <v>1643.51076942914</v>
       </c>
       <c r="U22" t="n">
-        <v>1585.919417988846</v>
+        <v>1354.407902554783</v>
       </c>
       <c r="V22" t="n">
-        <v>1331.23492978296</v>
+        <v>1099.723414348896</v>
       </c>
       <c r="W22" t="n">
-        <v>1041.817759745999</v>
+        <v>810.3062443119354</v>
       </c>
       <c r="X22" t="n">
-        <v>813.8282088479815</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="Y22" t="n">
-        <v>593.0356297044514</v>
+        <v>582.3166934139181</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5993,16 +5993,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N23" t="n">
-        <v>3008.107474639231</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O23" t="n">
-        <v>3888.072124968686</v>
+        <v>3907.560977731604</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4168978689403</v>
+        <v>243.4741280307879</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410335</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1288.206478295169</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>1158.199027910488</v>
+        <v>692.2562580723353</v>
       </c>
       <c r="X25" t="n">
-        <v>930.2094770124704</v>
+        <v>464.266707174318</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.4168978689403</v>
+        <v>243.4741280307879</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,52 +6224,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1352.099436442225</v>
+        <v>1605.620901857741</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272054</v>
+        <v>2584.171204687569</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6315,10 +6315,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902953</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.3002584566049</v>
+        <v>278.842559306553</v>
       </c>
       <c r="C28" t="n">
-        <v>390.3640755286979</v>
+        <v>278.842559306553</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>128.7259198942172</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>128.7259198942172</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6382,7 +6382,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1552.184046741</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1297.499558535113</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W28" t="n">
-        <v>1008.082388498152</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="X28" t="n">
-        <v>780.092837600135</v>
+        <v>681.2836032803228</v>
       </c>
       <c r="Y28" t="n">
-        <v>559.3002584566049</v>
+        <v>460.4910241367927</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N29" t="n">
-        <v>3008.107474639231</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O29" t="n">
-        <v>3888.072124968686</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P29" t="n">
-        <v>4282.846491325864</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604875</v>
@@ -6537,10 +6537,10 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193594</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.1197344942216</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927023</v>
@@ -6637,7 +6637,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1649.210943635087</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V31" t="n">
-        <v>1394.5264554292</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.109285392239</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X31" t="n">
-        <v>877.1197344942216</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y31" t="n">
-        <v>877.1197344942216</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
         <v>2005.253839749764</v>
@@ -6683,67 +6683,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1299.085123758013</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>1832.617028429938</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N32" t="n">
-        <v>2812.369300656584</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986039</v>
+        <v>3819.938960973981</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4214.713327331159</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193594</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>730.2297869963113</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C34" t="n">
-        <v>561.2936040684044</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D34" t="n">
-        <v>411.1769646560686</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6883,25 +6883,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862231</v>
+        <v>1656.223051331472</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.410141987875</v>
+        <v>1367.120184457116</v>
       </c>
       <c r="V34" t="n">
-        <v>1360.660381868099</v>
+        <v>1112.435696251229</v>
       </c>
       <c r="W34" t="n">
-        <v>1360.660381868099</v>
+        <v>823.0185262142681</v>
       </c>
       <c r="X34" t="n">
-        <v>1132.670830970081</v>
+        <v>595.0289753162508</v>
       </c>
       <c r="Y34" t="n">
-        <v>911.878251826551</v>
+        <v>595.0289753162509</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571331</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J35" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K35" t="n">
-        <v>774.6894873488977</v>
+        <v>905.6874632521005</v>
       </c>
       <c r="L35" t="n">
-        <v>1639.208303002252</v>
+        <v>1356.721676500509</v>
       </c>
       <c r="M35" t="n">
-        <v>2172.740207674177</v>
+        <v>1890.253581172434</v>
       </c>
       <c r="N35" t="n">
-        <v>2959.157162760386</v>
+        <v>2437.032398231216</v>
       </c>
       <c r="O35" t="n">
-        <v>3462.129633639723</v>
+        <v>3316.99704856067</v>
       </c>
       <c r="P35" t="n">
-        <v>3856.903999996901</v>
+        <v>3711.771414917848</v>
       </c>
       <c r="Q35" t="n">
-        <v>4105.190361752583</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983638</v>
@@ -6968,10 +6968,10 @@
         <v>3984.706179583937</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W35" t="n">
         <v>3154.90602777756</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.6170717285977</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C36" t="n">
-        <v>785.1640424474707</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D36" t="n">
-        <v>636.2296327862196</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E36" t="n">
-        <v>476.992177780764</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076491</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G36" t="n">
         <v>194.0945196402673</v>
@@ -7017,13 +7017,13 @@
         <v>178.26260317029</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506372</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N36" t="n">
         <v>1704.024331240073</v>
@@ -7053,7 +7053,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W36" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X36" t="n">
         <v>1335.59270751362</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>797.2374854406979</v>
+        <v>685.1783477027952</v>
       </c>
       <c r="C37" t="n">
-        <v>664.1552583572817</v>
+        <v>552.096120619379</v>
       </c>
       <c r="D37" t="n">
-        <v>549.8925747894367</v>
+        <v>437.8334370515341</v>
       </c>
       <c r="E37" t="n">
-        <v>437.8334370515343</v>
+        <v>437.8334370515341</v>
       </c>
       <c r="F37" t="n">
-        <v>326.7974453981146</v>
+        <v>326.7974453981145</v>
       </c>
       <c r="G37" t="n">
-        <v>194.9485646173243</v>
+        <v>194.9485646173242</v>
       </c>
       <c r="H37" t="n">
         <v>84.58533367967277</v>
@@ -7093,13 +7093,13 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7111,7 +7111,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q37" t="n">
         <v>2226.491462321464</v>
@@ -7120,25 +7120,25 @@
         <v>2172.514960923483</v>
       </c>
       <c r="S37" t="n">
-        <v>2045.748870362745</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T37" t="n">
-        <v>2045.748870362745</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U37" t="n">
-        <v>1792.499959332879</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.669426971483</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W37" t="n">
-        <v>1320.106212779013</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.970617725486</v>
+        <v>912.9921203715591</v>
       </c>
       <c r="Y37" t="n">
-        <v>943.031994426447</v>
+        <v>728.0534970725197</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D38" t="n">
         <v>1456.742661151839</v>
@@ -7160,13 +7160,13 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529678</v>
+        <v>731.6764154529682</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424548</v>
+        <v>352.4579211424554</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571337</v>
+        <v>90.72827659571333</v>
       </c>
       <c r="I38" t="n">
         <v>84.58533367967277</v>
@@ -7175,22 +7175,22 @@
         <v>273.4644646386981</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2838383285446</v>
+        <v>928.1877967739975</v>
       </c>
       <c r="L38" t="n">
-        <v>1058.318051576953</v>
+        <v>1625.324975614165</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.868354406782</v>
+        <v>2158.856880286089</v>
       </c>
       <c r="N38" t="n">
-        <v>2814.024577681334</v>
+        <v>2705.635697344871</v>
       </c>
       <c r="O38" t="n">
-        <v>3316.99704856067</v>
+        <v>3208.608168224208</v>
       </c>
       <c r="P38" t="n">
-        <v>3711.771414917848</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q38" t="n">
         <v>4170.249617426836</v>
@@ -7211,13 +7211,13 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C39" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D39" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E39" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F39" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G39" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H39" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I39" t="n">
         <v>84.58533367967277</v>
@@ -7272,28 +7272,28 @@
         <v>2425.48520213423</v>
       </c>
       <c r="Q39" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R39" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S39" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T39" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U39" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V39" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W39" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X39" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y39" t="n">
         <v>1127.832408748666</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>748.3459758402104</v>
+        <v>747.6732151244419</v>
       </c>
       <c r="C40" t="n">
-        <v>615.2637487567941</v>
+        <v>614.5909880410258</v>
       </c>
       <c r="D40" t="n">
-        <v>501.0010651889492</v>
+        <v>500.3283044731808</v>
       </c>
       <c r="E40" t="n">
-        <v>388.9419274510468</v>
+        <v>388.2691667352784</v>
       </c>
       <c r="F40" t="n">
-        <v>277.9059357976271</v>
+        <v>388.2691667352784</v>
       </c>
       <c r="G40" t="n">
-        <v>146.0570550168367</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H40" t="n">
         <v>146.0570550168367</v>
@@ -7330,13 +7330,13 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218552</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7345,37 +7345,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S40" t="n">
-        <v>2172.514960923483</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T40" t="n">
-        <v>1996.857360762257</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U40" t="n">
-        <v>1743.608449732392</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V40" t="n">
-        <v>1524.777917370996</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W40" t="n">
-        <v>1271.214703178525</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X40" t="n">
-        <v>1079.079108124999</v>
+        <v>912.9921203715596</v>
       </c>
       <c r="Y40" t="n">
-        <v>894.1404848259594</v>
+        <v>893.4677241101908</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.262965010018</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914097</v>
       </c>
       <c r="D41" t="n">
         <v>1456.742661151838</v>
@@ -7397,49 +7397,49 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571337</v>
+        <v>90.72827659571333</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J41" t="n">
         <v>273.4644646386981</v>
       </c>
       <c r="K41" t="n">
-        <v>607.2838383285446</v>
+        <v>928.1877967739975</v>
       </c>
       <c r="L41" t="n">
-        <v>1192.351520446301</v>
+        <v>1792.706612427352</v>
       </c>
       <c r="M41" t="n">
-        <v>1725.883425118225</v>
+        <v>2326.238517099276</v>
       </c>
       <c r="N41" t="n">
-        <v>2705.635697344871</v>
+        <v>2873.017334158058</v>
       </c>
       <c r="O41" t="n">
-        <v>3208.608168224208</v>
+        <v>3375.989805037395</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671154</v>
+        <v>3921.963255671153</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426836</v>
+        <v>4170.249617426835</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U41" t="n">
         <v>3767.029658702264</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.6170717285975</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C42" t="n">
-        <v>785.1640424474705</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862192</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807637</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076487</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0945196402668</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H42" t="n">
-        <v>103.5926252781343</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J42" t="n">
         <v>178.26260317029</v>
@@ -7500,37 +7500,37 @@
         <v>1230.501287685618</v>
       </c>
       <c r="N42" t="n">
-        <v>1704.024331240073</v>
+        <v>1704.024331240074</v>
       </c>
       <c r="O42" t="n">
-        <v>2114.985610658127</v>
+        <v>2114.985610658128</v>
       </c>
       <c r="P42" t="n">
-        <v>2425.48520213423</v>
+        <v>2425.485202134231</v>
       </c>
       <c r="Q42" t="n">
-        <v>2583.12675978083</v>
+        <v>2583.126759780831</v>
       </c>
       <c r="R42" t="n">
-        <v>2582.982406373345</v>
+        <v>2582.982406373346</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.544519866825</v>
+        <v>2453.544519866826</v>
       </c>
       <c r="T42" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U42" t="n">
-        <v>2032.833672679096</v>
+        <v>2032.833672679097</v>
       </c>
       <c r="V42" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W42" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X42" t="n">
-        <v>1335.592707513619</v>
+        <v>1335.59270751362</v>
       </c>
       <c r="Y42" t="n">
         <v>1127.832408748666</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>686.8742545030465</v>
+        <v>582.2589880867699</v>
       </c>
       <c r="C43" t="n">
-        <v>553.7920274196302</v>
+        <v>449.1767610033538</v>
       </c>
       <c r="D43" t="n">
-        <v>439.5293438517852</v>
+        <v>334.9140774355088</v>
       </c>
       <c r="E43" t="n">
-        <v>327.4702061138828</v>
+        <v>334.9140774355088</v>
       </c>
       <c r="F43" t="n">
-        <v>216.4342144604631</v>
+        <v>223.8780857820891</v>
       </c>
       <c r="G43" t="n">
-        <v>84.58533367967277</v>
+        <v>194.9485646173242</v>
       </c>
       <c r="H43" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J43" t="n">
         <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
         <v>755.6763338935368</v>
       </c>
       <c r="M43" t="n">
-        <v>1134.97384161627</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N43" t="n">
-        <v>1511.52268044532</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
         <v>2113.740704045764</v>
@@ -7591,28 +7591,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S43" t="n">
-        <v>2070.659533992781</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>1935.385639425093</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1682.136728395228</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1463.306196033831</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.742981841362</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.607386787835</v>
+        <v>912.9921203715584</v>
       </c>
       <c r="Y43" t="n">
-        <v>832.6687634887955</v>
+        <v>728.0534970725189</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E44" t="n">
         <v>1106.808364398085</v>
@@ -7637,37 +7637,37 @@
         <v>731.6764154529681</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424553</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571333</v>
+        <v>90.72827659571331</v>
       </c>
       <c r="I44" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J44" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K44" t="n">
-        <v>774.6894873488975</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L44" t="n">
-        <v>1225.723700597306</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M44" t="n">
-        <v>1759.25560526923</v>
+        <v>1591.849956248877</v>
       </c>
       <c r="N44" t="n">
-        <v>2739.007877495877</v>
+        <v>2571.602228475524</v>
       </c>
       <c r="O44" t="n">
-        <v>3241.980348375213</v>
+        <v>3208.608168224207</v>
       </c>
       <c r="P44" t="n">
-        <v>3646.712159243594</v>
+        <v>3921.963255671153</v>
       </c>
       <c r="Q44" t="n">
-        <v>4105.190361752582</v>
+        <v>4170.249617426835</v>
       </c>
       <c r="R44" t="n">
         <v>4229.266683983637</v>
@@ -7679,10 +7679,10 @@
         <v>3984.706179583936</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W44" t="n">
         <v>3154.90602777756</v>
@@ -7728,13 +7728,13 @@
         <v>178.26260317029</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506382</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633034</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M45" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N45" t="n">
         <v>1704.024331240074</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.49709505942</v>
+        <v>582.2589880867699</v>
       </c>
       <c r="C46" t="n">
-        <v>483.4148679760037</v>
+        <v>449.1767610033538</v>
       </c>
       <c r="D46" t="n">
-        <v>369.1521844081587</v>
+        <v>334.9140774355088</v>
       </c>
       <c r="E46" t="n">
-        <v>257.0930466702563</v>
+        <v>222.8549396976065</v>
       </c>
       <c r="F46" t="n">
-        <v>146.0570550168367</v>
+        <v>111.8189480441869</v>
       </c>
       <c r="G46" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I46" t="n">
         <v>84.58533367967276</v>
@@ -7834,22 +7834,22 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>1865.008479981467</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U46" t="n">
-        <v>1611.759568951601</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1392.929036590205</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1139.365822397735</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X46" t="n">
-        <v>947.2302273442082</v>
+        <v>912.9921203715585</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.2916040451689</v>
+        <v>728.0534970725189</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>120.6810748271863</v>
+        <v>120.6810748271847</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8696,22 +8696,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>251.7982062376329</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>370.4516004729544</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,22 +8933,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>216.9877583263337</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>354.4836849406629</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.201528428093297e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>142.1686942807564</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836476856</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>19.79750571619354</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>57.67224444724015</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,19 +9641,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>189.7998007892651</v>
+        <v>170.1140909277316</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>116.5656919961592</v>
+        <v>217.5991828955684</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>314.5564971416995</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.0833809162833</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>232.1124963760993</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>192.9047586887115</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>301.4178029530869</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>242.0587252802288</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>248.5888541330897</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>232.7044507229997</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>135.3873422922701</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>152.726347754121</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>135.3873422922698</v>
       </c>
       <c r="P44" t="n">
-        <v>10.05802475879074</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.34040723538503</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>115.0119116157689</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.7037864376757</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>82.55208449419987</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>166.6174291483826</v>
       </c>
       <c r="C19" t="n">
-        <v>40.30479019211181</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>188.5457575688511</v>
       </c>
       <c r="U22" t="n">
-        <v>109.2610559023563</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056128</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>157.8156224557567</v>
+        <v>71.67627119164641</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>112.5878114315666</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>75.86303836698838</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>71.08279363073986</v>
+        <v>272.3211098256426</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25123,25 +25123,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>201.1309166521597</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>37.5553808052496</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>101.8901660198642</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379231</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>28.77517939026504</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901234</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>10.15250883051036</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>163.7600847672938</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>101.8901660198652</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379233</v>
+        <v>60.85700412379229</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400156</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>50.13237736811232</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729824</v>
+        <v>103.5691137521134</v>
       </c>
       <c r="H46" t="n">
         <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379229</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>33.8957259029232</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>742516.1418197855</v>
+        <v>742516.1418197856</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>742516.1418197853</v>
+        <v>742516.1418197855</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>742516.1418197853</v>
+        <v>742516.1418197856</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>742516.1418197855</v>
+        <v>742516.1418197853</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752146.498081485</v>
+        <v>752146.4980814853</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752146.4980814852</v>
+        <v>752146.498081485</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846403</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="F2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="G2" t="n">
+        <v>675039.0377078718</v>
+      </c>
+      <c r="H2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="I2" t="n">
         <v>675039.0377078715</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>675039.0377078713</v>
-      </c>
-      <c r="G2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="H2" t="n">
-        <v>675039.0377078712</v>
-      </c>
-      <c r="I2" t="n">
-        <v>675039.0377078713</v>
-      </c>
-      <c r="J2" t="n">
-        <v>675039.0377078718</v>
       </c>
       <c r="K2" t="n">
         <v>675039.0377078715</v>
       </c>
       <c r="L2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="M2" t="n">
         <v>692302.3157679553</v>
       </c>
       <c r="N2" t="n">
-        <v>692302.3157679552</v>
+        <v>692302.3157679557</v>
       </c>
       <c r="O2" t="n">
-        <v>692302.3157679553</v>
+        <v>692302.3157679554</v>
       </c>
       <c r="P2" t="n">
-        <v>692302.3157679557</v>
+        <v>692302.3157679556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394289</v>
+        <v>507203.142839428</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217417831</v>
+        <v>78665.28217417927</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410739</v>
+        <v>157829.4001410737</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022126</v>
+        <v>18289.94367022144</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.791188175</v>
+        <v>123848.7911881751</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547193</v>
+        <v>232017.7717547195</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,16 +26424,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="F4" t="n">
+        <v>28561.83935289573</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28561.83935289576</v>
+      </c>
+      <c r="H4" t="n">
         <v>28561.83935289572</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28561.83935289574</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28561.83935289579</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289577</v>
@@ -26442,22 +26442,22 @@
         <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501856</v>
+        <v>55718.30868501864</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501858</v>
+        <v>55718.30868501861</v>
       </c>
       <c r="O4" t="n">
-        <v>55718.30868501858</v>
+        <v>55718.30868501861</v>
       </c>
       <c r="P4" t="n">
-        <v>55718.30868501861</v>
+        <v>55718.30868501862</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133447</v>
+        <v>77204.6887113344</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="I5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>91026.04982123678</v>
@@ -26506,7 +26506,7 @@
         <v>91026.04982123678</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.04982123677</v>
       </c>
       <c r="P5" t="n">
         <v>91026.04982123677</v>
@@ -26522,46 +26522,46 @@
         <v>-118540.0989208417</v>
       </c>
       <c r="C6" t="n">
-        <v>326438.7286840203</v>
+        <v>326438.7286840192</v>
       </c>
       <c r="D6" t="n">
-        <v>405104.0108581982</v>
+        <v>405104.0108581983</v>
       </c>
       <c r="E6" t="n">
-        <v>-177283.7338921445</v>
+        <v>-177350.9293823702</v>
       </c>
       <c r="F6" t="n">
-        <v>550093.6801012619</v>
+        <v>550026.4846110361</v>
       </c>
       <c r="G6" t="n">
-        <v>550093.6801012621</v>
+        <v>550026.4846110366</v>
       </c>
       <c r="H6" t="n">
-        <v>550093.6801012619</v>
+        <v>550026.4846110361</v>
       </c>
       <c r="I6" t="n">
-        <v>550093.6801012619</v>
+        <v>550026.4846110365</v>
       </c>
       <c r="J6" t="n">
-        <v>392264.2799601884</v>
+        <v>392197.0844699625</v>
       </c>
       <c r="K6" t="n">
-        <v>531803.7364310408</v>
+        <v>531736.5409408149</v>
       </c>
       <c r="L6" t="n">
-        <v>550093.6801012622</v>
+        <v>550026.4846110366</v>
       </c>
       <c r="M6" t="n">
-        <v>421709.166073525</v>
+        <v>421692.7449305345</v>
       </c>
       <c r="N6" t="n">
-        <v>545557.9572616998</v>
+        <v>545541.5361187102</v>
       </c>
       <c r="O6" t="n">
-        <v>545557.9572617</v>
+        <v>545541.5361187098</v>
       </c>
       <c r="P6" t="n">
-        <v>545557.9572617004</v>
+        <v>545541.5361187101</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P2" t="n">
         <v>35.49541628604582</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688995</v>
+        <v>316.5685789688988</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.221935687705</v>
+        <v>603.2219356877041</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26802,10 +26802,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26826,7 +26826,7 @@
         <v>1057.31667099591</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
       <c r="P4" t="n">
         <v>1057.316670995909</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688995</v>
+        <v>316.5685789688988</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818709</v>
+        <v>61.17508524818783</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.221935687705</v>
+        <v>603.2219356877041</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685059</v>
+        <v>71.0653370668515</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.221935687705</v>
+        <v>603.2219356877041</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685082</v>
+        <v>71.0653370668515</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413538</v>
+        <v>383.0293982413542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.221935687705</v>
+        <v>603.2219356877041</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685059</v>
+        <v>71.0653370668515</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208642</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776873</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930304</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>174.2588331630051</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0.481956014763</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>126.3429160502291</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.95263903154851</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015508</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>11.3973838329953</v>
       </c>
     </row>
     <row r="4">
@@ -27552,13 +27552,13 @@
         <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255596</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739056</v>
+        <v>38.36018782739067</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6253882365108</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>214.0680412192119</v>
@@ -27591,19 +27591,19 @@
         <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2878914634775</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>276.5865517323426</v>
+        <v>147.4810844321755</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>119.3628899815889</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>353.6695123927814</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>82.46735232787631</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.5913466674049</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>92.48190207837939</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>182.9125578436379</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>61.54756261098041</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28059,13 +28059,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-7.321865041901812e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.136594450213864e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604527</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604585</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="44">
@@ -30706,7 +30706,7 @@
         <v>35.49541628604582</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604601</v>
       </c>
       <c r="G44" t="n">
         <v>35.49541628604582</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.27263750339256</v>
+        <v>1.272637503392557</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161906</v>
+        <v>13.03339883161903</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954171</v>
+        <v>49.0633573495416</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035644</v>
+        <v>108.0135173035641</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221715</v>
+        <v>161.8842628221711</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166216</v>
+        <v>200.8317428166211</v>
       </c>
       <c r="M2" t="n">
-        <v>223.464010017579</v>
+        <v>223.4640100175785</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240931</v>
+        <v>227.0798913240926</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497333</v>
+        <v>214.4251021497329</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847295</v>
+        <v>183.0068637847291</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944834</v>
+        <v>137.4305331944831</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248295</v>
+        <v>79.94231557248278</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855799</v>
+        <v>29.00022710855792</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100933</v>
+        <v>5.570970671100921</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714048</v>
+        <v>0.1018110002714045</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859347</v>
+        <v>0.6809210943859333</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674687</v>
+        <v>6.576264253674672</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986662</v>
+        <v>23.44399381986657</v>
       </c>
       <c r="J3" t="n">
-        <v>64.3321109393308</v>
+        <v>64.33211093933066</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631884</v>
+        <v>109.9538242631882</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665601</v>
+        <v>147.8464858665598</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380502</v>
+        <v>172.5298755380498</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648752</v>
+        <v>177.0962279648748</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313763</v>
+        <v>162.008450031376</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674335</v>
+        <v>130.0260640674332</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915898</v>
+        <v>86.9189803991588</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248814</v>
+        <v>42.27683777248805</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861593</v>
+        <v>12.6478106786159</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739798</v>
+        <v>2.744589849739791</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0447974404201273</v>
+        <v>0.04479744042012721</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111302</v>
+        <v>0.570861371911129</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173506</v>
+        <v>5.075476561173495</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801836</v>
+        <v>17.16735834801832</v>
       </c>
       <c r="J4" t="n">
-        <v>40.3598989941169</v>
+        <v>40.35989899411681</v>
       </c>
       <c r="K4" t="n">
-        <v>66.3237121184022</v>
+        <v>66.32371211840206</v>
       </c>
       <c r="L4" t="n">
-        <v>84.8715170566784</v>
+        <v>84.87151705667821</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148743</v>
+        <v>89.48511487148723</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890964</v>
+        <v>87.35735884890946</v>
       </c>
       <c r="O4" t="n">
-        <v>80.6886600952205</v>
+        <v>80.68866009522033</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823339</v>
+        <v>69.04308810823323</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430382</v>
+        <v>47.80185542430372</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065863</v>
+        <v>25.66800314065857</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760329</v>
+        <v>9.948556817760307</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711192</v>
+        <v>2.439134952711187</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333441</v>
+        <v>0.03113789301333434</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31838,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31856,7 +31856,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987486</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026443</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33041,7 +33041,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33260,10 +33260,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33497,10 +33497,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970259</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353167</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895185</v>
+        <v>96.06422794895163</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483556</v>
+        <v>265.9398243483553</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970848</v>
+        <v>382.7265423970844</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831388</v>
+        <v>442.6313102831382</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394863</v>
+        <v>435.0137521394859</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907919</v>
+        <v>365.1270719907915</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009426</v>
+        <v>273.5725762009422</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799386</v>
+        <v>127.4398339799383</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307295</v>
+        <v>63.5855196130728</v>
       </c>
       <c r="K3" t="n">
-        <v>236.577622301408</v>
+        <v>236.5776223014078</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901451</v>
+        <v>380.1324513901448</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660318</v>
+        <v>496.1009053660314</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250954</v>
+        <v>525.0968902250951</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636614</v>
+        <v>413.2745248636611</v>
       </c>
       <c r="P3" t="n">
-        <v>116.7327314802895</v>
+        <v>116.7327314802877</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489866</v>
+        <v>157.0144940489864</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251935</v>
+        <v>44.0542202925192</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169945</v>
+        <v>112.4615423169944</v>
       </c>
       <c r="M4" t="n">
-        <v>129.068991833328</v>
+        <v>129.0689918333278</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281382</v>
+        <v>131.489531228138</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092602</v>
+        <v>105.27378800926</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312688</v>
+        <v>66.32164737312672</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35416,22 +35416,22 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>790.7193220678595</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>878.5046013611734</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597766</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35504,7 +35504,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127271</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>769.2895937392452</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>862.5366858288819</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>332.9556952494689</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400177</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
@@ -35905,7 +35905,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>475.3876201085255</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>117.2854429894649</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597763</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789363</v>
@@ -36361,19 +36361,19 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>588.5617870086368</v>
+        <v>568.8760771471033</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789363</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>572.1558063884911</v>
+        <v>673.1892972879003</v>
       </c>
       <c r="M26" t="n">
         <v>988.434649323059</v>
@@ -36610,13 +36610,13 @@
         <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>713.3184833610711</v>
       </c>
       <c r="Q29" t="n">
-        <v>374.8776857200028</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -37069,10 +37069,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>687.7026107684312</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37081,13 +37081,13 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>443.6990634924309</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>638.6090895084873</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>794.3605606931403</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525815</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
@@ -37543,25 +37543,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>704.1789685254216</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>785.006286135911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222472</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L40" t="n">
         <v>355.2527884562439</v>
@@ -37710,16 +37710,16 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>590.9774566846021</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>551.4883339734927</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911202</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L43" t="n">
         <v>355.2527884562439</v>
@@ -37950,13 +37950,13 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38029,16 +38029,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>643.4403431804888</v>
       </c>
       <c r="P44" t="n">
-        <v>408.8200109781624</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609577</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
